--- a/biology/Zoologie/Cheliceroides_longipalpis/Cheliceroides_longipalpis.xlsx
+++ b/biology/Zoologie/Cheliceroides_longipalpis/Cheliceroides_longipalpis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheliceroides longipalpis, unique représentant du genre Cheliceroides, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheliceroides longipalpis, unique représentant du genre Cheliceroides, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Viêt Nam et en Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Viêt Nam et en Chine.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,20 mm de long et l'abdomen 4,10 mm[2].
-La carapace du mâle décrit par Logunov en 2021 mesure 3,20 mm de long sur 2,50 mm et l'abdomen 2,90 mm de long sur 1,70 mm et la carapace de la femelle 3,05 mm de long sur 2,35 mm et l'abdomen 3,65 mm de long sur 2,20 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,20 mm de long et l'abdomen 4,10 mm.
+La carapace du mâle décrit par Logunov en 2021 mesure 3,20 mm de long sur 2,50 mm et l'abdomen 2,90 mm de long sur 1,70 mm et la carapace de la femelle 3,05 mm de long sur 2,35 mm et l'abdomen 3,65 mm de long sur 2,20 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Żabka en 1985 dans les Salticidae. Il est placé en synonymie avec Colopsus par Logunov en 2021[3]. Il est relevé de synonymie par Lin, Yang et Zhang en 2024[4].
-Cette espèce a été décrite sous le protonyme Cheliceroides longipalpis par Żabka en 1985. Elle est placée dans le genre Colopsus par Logunov en 2021[3] puis dans le genre Cheliceroides par Lin, Yang et Zhang en 2024[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Żabka en 1985 dans les Salticidae. Il est placé en synonymie avec Colopsus par Logunov en 2021. Il est relevé de synonymie par Lin, Yang et Zhang en 2024.
+Cette espèce a été décrite sous le protonyme Cheliceroides longipalpis par Żabka en 1985. Elle est placée dans le genre Colopsus par Logunov en 2021 puis dans le genre Cheliceroides par Lin, Yang et Zhang en 2024.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Żabka, 1985 : « Systematic and zoogeographic study on the family Salticidae (Araneae) from Viet-Nam. » Annales Zoologici, vol. 39, no 11, p. 197-485.</t>
         </is>
